--- a/QRPH/CCG/StructureDefinition-ccg-di-location.xlsx
+++ b/QRPH/CCG/StructureDefinition-ccg-di-location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T16:28:52-05:00</t>
+    <t>2025-10-02T10:26:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2390,7 +2390,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>143</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>150</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>165</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>181</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>190</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>202</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>209</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>217</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>246</v>
       </c>
@@ -5616,12 +5616,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AL40">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
